--- a/docs/piau_im_taigi 鍵盤設計.xlsx
+++ b/docs/piau_im_taigi 鍵盤設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanjui/workspace/rime/rime-piau-im/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{207CACDF-CE77-8741-928F-24D2DF37DD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460CD412-9F34-6748-80B1-74C70F5490C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="21100" xr2:uid="{E857BFFD-E80F-1F49-ABF0-AC9C6259279D}"/>
+    <workbookView xWindow="-89360" yWindow="740" windowWidth="37920" windowHeight="20620" xr2:uid="{E857BFFD-E80F-1F49-ABF0-AC9C6259279D}"/>
   </bookViews>
   <sheets>
     <sheet name="RIME指令解析" sheetId="1" r:id="rId1"/>
@@ -2159,10 +2159,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>xlit|pPbtTdkKgcCzshiuaoøeIUBDGN|ㄅㄆㆠㄉㄊㄌㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆦㄜㆤㄞㄠㆬㄣㆭｎ|</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>xlit|pPmbtTndkKhjJSgqzcCsiuBaoøMIeUYLDQGN123570|1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/- 43657|</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -2994,6 +2990,17 @@
   </si>
   <si>
     <t>彙集表（1）（2）（3）之輸入設計表</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Serif TC Bold"/>
+      </rPr>
+      <t>xlit|pPbtTdkKgcCzshiuaoøeIUBDGN|ㄅㄆㆠㄉㄊㄌㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆦㄜㆤㄞㄠㆬㄣㆭｎ|</t>
+    </r>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -3006,7 +3013,7 @@
     <numFmt numFmtId="177" formatCode="&quot;[&quot;\ @\ &quot;]&quot;"/>
     <numFmt numFmtId="178" formatCode="&quot;/ &quot;@&quot; /&quot;"/>
   </numFmts>
-  <fonts count="72">
+  <fonts count="75">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -3442,6 +3449,21 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Serif TC Bold"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans TC Bold"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Sans TC Bold"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -3846,7 +3868,7 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4191,68 +4213,11 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="13" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="13" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="13" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="13" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="13" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="13" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="13" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="13" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="13" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="13" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="13" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="13" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4280,29 +4245,8 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="13" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="13" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="13" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="13" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="13" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="65" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="13" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4314,12 +4258,6 @@
     <xf numFmtId="0" fontId="68" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="68" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="14" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4359,6 +4297,105 @@
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="13" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="13" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="13" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="13" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="13" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="13" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="13" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="13" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="13" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -14999,7 +15036,7 @@
   <dimension ref="A1:AU46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
@@ -15052,8 +15089,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="120"/>
-      <c r="AR1" s="120"/>
+      <c r="AQ1" s="147"/>
+      <c r="AR1" s="147"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -15069,99 +15106,99 @@
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:47" s="9" customFormat="1" ht="23">
-      <c r="B5" s="118" t="s">
-        <v>508</v>
-      </c>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="119"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
-      <c r="X5" s="119"/>
-      <c r="Y5" s="119"/>
-      <c r="Z5" s="119"/>
+    <row r="5" spans="1:47" s="9" customFormat="1" ht="30">
+      <c r="B5" s="178" t="s">
+        <v>507</v>
+      </c>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="179"/>
+      <c r="Q5" s="179"/>
+      <c r="R5" s="179"/>
+      <c r="S5" s="179"/>
+      <c r="T5" s="179"/>
+      <c r="U5" s="179"/>
+      <c r="V5" s="179"/>
+      <c r="W5" s="179"/>
+      <c r="X5" s="179"/>
+      <c r="Y5" s="179"/>
+      <c r="Z5" s="179"/>
     </row>
     <row r="6" spans="1:47" s="9" customFormat="1" ht="23"/>
     <row r="7" spans="1:47" s="9" customFormat="1" ht="23">
       <c r="B7" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="C7" s="116" t="str" cm="1">
+        <v>722</v>
+      </c>
+      <c r="C7" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="C7" ca="1" xml:space="preserve"> MID( INDIRECT(ADDRESS(ROW()-2, COLUMN($B:$B))), 6, 42)</f>
         <v>pPmbtTndkKhjJSgqzcCsiuBaoøMIeUYLDQGN123570</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="116"/>
-      <c r="S7" s="116"/>
-      <c r="T7" s="116"/>
-      <c r="U7" s="116"/>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="116"/>
-      <c r="Z7" s="116"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="148"/>
+      <c r="R7" s="148"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="148"/>
+      <c r="U7" s="148"/>
+      <c r="V7" s="148"/>
+      <c r="W7" s="148"/>
+      <c r="X7" s="148"/>
+      <c r="Y7" s="148"/>
+      <c r="Z7" s="148"/>
     </row>
     <row r="8" spans="1:47" s="9" customFormat="1" ht="23">
       <c r="B8" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="C8" s="117" t="str" cm="1">
+      <c r="C8" s="149" t="str" cm="1">
         <f t="array" aca="1" ref="C8" ca="1" xml:space="preserve"> MID( INDIRECT(ADDRESS(ROW()-3, COLUMN($B:$B))), 49, 42)</f>
         <v>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/- 43657</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="117"/>
-      <c r="X8" s="117"/>
-      <c r="Y8" s="117"/>
-      <c r="Z8" s="117"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="149"/>
+      <c r="Q8" s="149"/>
+      <c r="R8" s="149"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
+      <c r="V8" s="149"/>
+      <c r="W8" s="149"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="149"/>
+      <c r="Z8" s="149"/>
     </row>
     <row r="9" spans="1:47" s="9" customFormat="1" ht="23"/>
     <row r="10" spans="1:47" s="9" customFormat="1" ht="30">
@@ -15739,99 +15776,99 @@
         <v>504</v>
       </c>
     </row>
-    <row r="20" spans="2:47" s="9" customFormat="1" ht="23">
-      <c r="B20" s="118" t="s">
-        <v>507</v>
-      </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
-      <c r="T20" s="119"/>
-      <c r="U20" s="119"/>
-      <c r="V20" s="119"/>
-      <c r="W20" s="119"/>
-      <c r="X20" s="119"/>
-      <c r="Y20" s="119"/>
-      <c r="Z20" s="119"/>
+    <row r="20" spans="2:47" s="9" customFormat="1" ht="30">
+      <c r="B20" s="150" t="s">
+        <v>749</v>
+      </c>
+      <c r="C20" s="151"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="151"/>
+      <c r="O20" s="151"/>
+      <c r="P20" s="151"/>
+      <c r="Q20" s="151"/>
+      <c r="R20" s="151"/>
+      <c r="S20" s="151"/>
+      <c r="T20" s="151"/>
+      <c r="U20" s="151"/>
+      <c r="V20" s="151"/>
+      <c r="W20" s="151"/>
+      <c r="X20" s="151"/>
+      <c r="Y20" s="151"/>
+      <c r="Z20" s="151"/>
     </row>
     <row r="21" spans="2:47" s="9" customFormat="1" ht="23"/>
     <row r="22" spans="2:47" s="9" customFormat="1" ht="23">
       <c r="B22" s="11" t="s">
-        <v>724</v>
-      </c>
-      <c r="C22" s="116" t="str" cm="1">
+        <v>723</v>
+      </c>
+      <c r="C22" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="C22" ca="1" xml:space="preserve"> MID( INDIRECT(ADDRESS(ROW()-2, COLUMN($B:$B))), 6, 26)</f>
         <v>pPbtTdkKgcCzshiuaoøeIUBDGN</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="116"/>
-      <c r="T22" s="116"/>
-      <c r="U22" s="116"/>
-      <c r="V22" s="116"/>
-      <c r="W22" s="116"/>
-      <c r="X22" s="116"/>
-      <c r="Y22" s="116"/>
-      <c r="Z22" s="116"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="148"/>
+      <c r="O22" s="148"/>
+      <c r="P22" s="148"/>
+      <c r="Q22" s="148"/>
+      <c r="R22" s="148"/>
+      <c r="S22" s="148"/>
+      <c r="T22" s="148"/>
+      <c r="U22" s="148"/>
+      <c r="V22" s="148"/>
+      <c r="W22" s="148"/>
+      <c r="X22" s="148"/>
+      <c r="Y22" s="148"/>
+      <c r="Z22" s="148"/>
     </row>
     <row r="23" spans="2:47" s="9" customFormat="1" ht="23">
       <c r="B23" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="117" t="str" cm="1">
+      <c r="C23" s="149" t="str" cm="1">
         <f t="array" aca="1" ref="C23" ca="1" xml:space="preserve"> MID( INDIRECT(ADDRESS(ROW()-3, COLUMN($B:$B))), 33, 26)</f>
         <v>ㄅㄆㆠㄉㄊㄌㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆦㄜㆤㄞㄠㆬㄣㆭｎ</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="117"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="117"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="117"/>
-      <c r="X23" s="117"/>
-      <c r="Y23" s="117"/>
-      <c r="Z23" s="117"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="149"/>
+      <c r="P23" s="149"/>
+      <c r="Q23" s="149"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="149"/>
+      <c r="T23" s="149"/>
+      <c r="U23" s="149"/>
+      <c r="V23" s="149"/>
+      <c r="W23" s="149"/>
+      <c r="X23" s="149"/>
+      <c r="Y23" s="149"/>
+      <c r="Z23" s="149"/>
     </row>
     <row r="24" spans="2:47" s="9" customFormat="1" ht="23"/>
     <row r="25" spans="2:47" s="9" customFormat="1" ht="30">
@@ -16295,99 +16332,99 @@
         <v>504</v>
       </c>
     </row>
-    <row r="35" spans="1:47" s="9" customFormat="1" ht="23">
-      <c r="B35" s="118" t="s">
+    <row r="35" spans="1:47" s="175" customFormat="1" ht="30">
+      <c r="B35" s="176" t="s">
         <v>506</v>
       </c>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="119"/>
-      <c r="K35" s="119"/>
-      <c r="L35" s="119"/>
-      <c r="M35" s="119"/>
-      <c r="N35" s="119"/>
-      <c r="O35" s="119"/>
-      <c r="P35" s="119"/>
-      <c r="Q35" s="119"/>
-      <c r="R35" s="119"/>
-      <c r="S35" s="119"/>
-      <c r="T35" s="119"/>
-      <c r="U35" s="119"/>
-      <c r="V35" s="119"/>
-      <c r="W35" s="119"/>
-      <c r="X35" s="119"/>
-      <c r="Y35" s="119"/>
-      <c r="Z35" s="119"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="177"/>
+      <c r="G35" s="177"/>
+      <c r="H35" s="177"/>
+      <c r="I35" s="177"/>
+      <c r="J35" s="177"/>
+      <c r="K35" s="177"/>
+      <c r="L35" s="177"/>
+      <c r="M35" s="177"/>
+      <c r="N35" s="177"/>
+      <c r="O35" s="177"/>
+      <c r="P35" s="177"/>
+      <c r="Q35" s="177"/>
+      <c r="R35" s="177"/>
+      <c r="S35" s="177"/>
+      <c r="T35" s="177"/>
+      <c r="U35" s="177"/>
+      <c r="V35" s="177"/>
+      <c r="W35" s="177"/>
+      <c r="X35" s="177"/>
+      <c r="Y35" s="177"/>
+      <c r="Z35" s="177"/>
     </row>
     <row r="36" spans="1:47" s="9" customFormat="1" ht="23"/>
     <row r="37" spans="1:47" s="9" customFormat="1" ht="23">
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="116" t="str" cm="1">
+      <c r="C37" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="C37" ca="1" xml:space="preserve"> MID( INDIRECT(ADDRESS(ROW()-2, COLUMN($B:$B))), 6, 41)</f>
         <v>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/-43657</v>
       </c>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="116"/>
-      <c r="M37" s="116"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="116"/>
-      <c r="P37" s="116"/>
-      <c r="Q37" s="116"/>
-      <c r="R37" s="116"/>
-      <c r="S37" s="116"/>
-      <c r="T37" s="116"/>
-      <c r="U37" s="116"/>
-      <c r="V37" s="116"/>
-      <c r="W37" s="116"/>
-      <c r="X37" s="116"/>
-      <c r="Y37" s="116"/>
-      <c r="Z37" s="116"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+      <c r="N37" s="148"/>
+      <c r="O37" s="148"/>
+      <c r="P37" s="148"/>
+      <c r="Q37" s="148"/>
+      <c r="R37" s="148"/>
+      <c r="S37" s="148"/>
+      <c r="T37" s="148"/>
+      <c r="U37" s="148"/>
+      <c r="V37" s="148"/>
+      <c r="W37" s="148"/>
+      <c r="X37" s="148"/>
+      <c r="Y37" s="148"/>
+      <c r="Z37" s="148"/>
     </row>
     <row r="38" spans="1:47" s="9" customFormat="1" ht="23">
       <c r="B38" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="117" t="str" cm="1">
+      <c r="C38" s="149" t="str" cm="1">
         <f t="array" aca="1" ref="C38" ca="1" xml:space="preserve"> MID( INDIRECT(ADDRESS(ROW()-3, COLUMN($B:$B))), 48, 41)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．</v>
       </c>
-      <c r="D38" s="117"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
-      <c r="K38" s="117"/>
-      <c r="L38" s="117"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="117"/>
-      <c r="O38" s="117"/>
-      <c r="P38" s="117"/>
-      <c r="Q38" s="117"/>
-      <c r="R38" s="117"/>
-      <c r="S38" s="117"/>
-      <c r="T38" s="117"/>
-      <c r="U38" s="117"/>
-      <c r="V38" s="117"/>
-      <c r="W38" s="117"/>
-      <c r="X38" s="117"/>
-      <c r="Y38" s="117"/>
-      <c r="Z38" s="117"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
+      <c r="N38" s="149"/>
+      <c r="O38" s="149"/>
+      <c r="P38" s="149"/>
+      <c r="Q38" s="149"/>
+      <c r="R38" s="149"/>
+      <c r="S38" s="149"/>
+      <c r="T38" s="149"/>
+      <c r="U38" s="149"/>
+      <c r="V38" s="149"/>
+      <c r="W38" s="149"/>
+      <c r="X38" s="149"/>
+      <c r="Y38" s="149"/>
+      <c r="Z38" s="149"/>
     </row>
     <row r="39" spans="1:47" s="9" customFormat="1" ht="23"/>
     <row r="40" spans="1:47" s="9" customFormat="1" ht="30">
@@ -16981,16 +17018,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C22:Z22"/>
+    <mergeCell ref="C23:Z23"/>
+    <mergeCell ref="B35:Z35"/>
+    <mergeCell ref="C37:Z37"/>
+    <mergeCell ref="C38:Z38"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="C7:Z7"/>
     <mergeCell ref="C8:Z8"/>
     <mergeCell ref="B5:Z5"/>
     <mergeCell ref="B20:Z20"/>
-    <mergeCell ref="C22:Z22"/>
-    <mergeCell ref="C23:Z23"/>
-    <mergeCell ref="B35:Z35"/>
-    <mergeCell ref="C37:Z37"/>
-    <mergeCell ref="C38:Z38"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17030,7 +17067,7 @@
         <v>163</v>
       </c>
       <c r="D4" s="113" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E4" s="115" t="s">
         <v>164</v>
@@ -17313,7 +17350,7 @@
         <v>163</v>
       </c>
       <c r="E22" s="113" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F22" s="115" t="s">
         <v>164</v>
@@ -17763,7 +17800,7 @@
         <v>163</v>
       </c>
       <c r="E43" s="113" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F43" s="115" t="s">
         <v>164</v>
@@ -18175,7 +18212,7 @@
         <v>163</v>
       </c>
       <c r="E65" s="113" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F65" s="115" t="s">
         <v>164</v>
@@ -18321,7 +18358,7 @@
         <v>163</v>
       </c>
       <c r="E74" s="113" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F74" s="115" t="s">
         <v>164</v>
@@ -18501,7 +18538,7 @@
         <v>163</v>
       </c>
       <c r="E84" s="113" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F84" s="115" t="s">
         <v>164</v>
@@ -18722,7 +18759,7 @@
         <v>163</v>
       </c>
       <c r="E97" s="113" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F97" s="115" t="s">
         <v>164</v>
@@ -18830,10 +18867,10 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C2" t="s">
         <v>581</v>
-      </c>
-      <c r="C2" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -18841,7 +18878,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -18849,7 +18886,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -18857,7 +18894,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -18865,7 +18902,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -18873,7 +18910,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -18881,7 +18918,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -18889,7 +18926,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -18897,7 +18934,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -18905,7 +18942,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -18913,7 +18950,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -18921,7 +18958,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -18929,7 +18966,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="2:3">
@@ -18937,7 +18974,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -18945,7 +18982,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -18953,7 +18990,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -18961,7 +18998,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -18969,7 +19006,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -18977,7 +19014,7 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -18985,7 +19022,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -18993,7 +19030,7 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -19001,7 +19038,7 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -19009,7 +19046,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -19017,7 +19054,7 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -19025,7 +19062,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -19033,7 +19070,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -19041,7 +19078,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -19049,7 +19086,7 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -19057,7 +19094,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -19065,7 +19102,7 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -19073,7 +19110,7 @@
         <v>222</v>
       </c>
       <c r="C32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -19081,7 +19118,7 @@
         <v>339</v>
       </c>
       <c r="C33" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -19089,7 +19126,7 @@
         <v>331</v>
       </c>
       <c r="C34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -19097,7 +19134,7 @@
         <v>321</v>
       </c>
       <c r="C35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -19105,7 +19142,7 @@
         <v>328</v>
       </c>
       <c r="C36" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -19113,7 +19150,7 @@
         <v>347</v>
       </c>
       <c r="C37" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -19121,7 +19158,7 @@
         <v>354</v>
       </c>
       <c r="C38" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -19129,7 +19166,7 @@
         <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -19137,7 +19174,7 @@
         <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="41" spans="2:3">
@@ -19145,7 +19182,7 @@
         <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="42" spans="2:3">
@@ -19153,7 +19190,7 @@
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -19161,7 +19198,7 @@
         <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -19169,7 +19206,7 @@
         <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="45" spans="2:3">
@@ -19177,7 +19214,7 @@
         <v>459</v>
       </c>
       <c r="C45" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" spans="2:3">
@@ -19185,7 +19222,7 @@
         <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -19193,7 +19230,7 @@
         <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="48" spans="2:3">
@@ -19201,7 +19238,7 @@
         <v>219</v>
       </c>
       <c r="C48" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" spans="2:3">
@@ -19209,7 +19246,7 @@
         <v>271</v>
       </c>
       <c r="C49" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="50" spans="2:3">
@@ -19217,7 +19254,7 @@
         <v>267</v>
       </c>
       <c r="C50" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="51" spans="2:3">
@@ -19225,7 +19262,7 @@
         <v>261</v>
       </c>
       <c r="C51" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="52" spans="2:3">
@@ -19233,7 +19270,7 @@
         <v>257</v>
       </c>
       <c r="C52" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="53" spans="2:3">
@@ -19241,7 +19278,7 @@
         <v>259</v>
       </c>
       <c r="C53" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="54" spans="2:3">
@@ -19249,7 +19286,7 @@
         <v>274</v>
       </c>
       <c r="C54" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -19257,7 +19294,7 @@
         <v>278</v>
       </c>
       <c r="C55" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -19265,7 +19302,7 @@
         <v>229</v>
       </c>
       <c r="C56" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="57" spans="2:3">
@@ -19273,7 +19310,7 @@
         <v>340</v>
       </c>
       <c r="C57" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="58" spans="2:3">
@@ -19281,31 +19318,31 @@
         <v>332</v>
       </c>
       <c r="C58" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
+        <v>564</v>
+      </c>
+      <c r="C59" t="s">
         <v>565</v>
-      </c>
-      <c r="C59" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
+        <v>566</v>
+      </c>
+      <c r="C60" t="s">
         <v>567</v>
-      </c>
-      <c r="C60" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
+        <v>568</v>
+      </c>
+      <c r="C61" t="s">
         <v>569</v>
-      </c>
-      <c r="C61" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="62" spans="2:3">
@@ -19313,7 +19350,7 @@
         <v>355</v>
       </c>
       <c r="C62" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="63" spans="2:3">
@@ -19321,7 +19358,7 @@
         <v>237</v>
       </c>
       <c r="C63" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -19329,7 +19366,7 @@
         <v>425</v>
       </c>
       <c r="C64" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="65" spans="2:3">
@@ -19337,7 +19374,7 @@
         <v>243</v>
       </c>
       <c r="C65" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" spans="2:3">
@@ -19345,7 +19382,7 @@
         <v>250</v>
       </c>
       <c r="C66" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="67" spans="2:3">
@@ -19353,15 +19390,15 @@
         <v>462</v>
       </c>
       <c r="C67" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
+        <v>576</v>
+      </c>
+      <c r="C68" t="s">
         <v>577</v>
-      </c>
-      <c r="C68" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="69" spans="2:3">
@@ -19369,7 +19406,7 @@
         <v>495</v>
       </c>
       <c r="C69" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="70" spans="2:3">
@@ -19377,7 +19414,7 @@
         <v>498</v>
       </c>
       <c r="C70" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -19447,27 +19484,27 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="120"/>
-      <c r="AR1" s="120"/>
+      <c r="AQ1" s="147"/>
+      <c r="AR1" s="147"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
     </row>
     <row r="2" spans="1:47" s="9" customFormat="1" ht="45">
       <c r="B2" s="10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:47" s="9" customFormat="1" ht="23"/>
     <row r="4" spans="1:47" ht="24" thickBot="1">
-      <c r="B4" s="164" t="s">
-        <v>680</v>
-      </c>
-      <c r="C4" s="168" t="s">
-        <v>712</v>
-      </c>
-      <c r="D4" s="169" t="s">
-        <v>722</v>
+      <c r="B4" s="136" t="s">
+        <v>679</v>
+      </c>
+      <c r="C4" s="140" t="s">
+        <v>711</v>
+      </c>
+      <c r="D4" s="141" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="24" thickTop="1">
@@ -19478,7 +19515,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="85" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="23">
@@ -19489,7 +19526,7 @@
         <v>170</v>
       </c>
       <c r="D6" s="85" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="7" spans="1:47" ht="23">
@@ -19522,7 +19559,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="23">
@@ -19533,7 +19570,7 @@
         <v>178</v>
       </c>
       <c r="D10" s="85" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="11" spans="1:47" ht="23">
@@ -19555,7 +19592,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="85" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="1:47" ht="23">
@@ -19599,7 +19636,7 @@
         <v>49</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="23">
@@ -19607,10 +19644,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="84" t="s">
+        <v>686</v>
+      </c>
+      <c r="D17" s="85" t="s">
         <v>687</v>
-      </c>
-      <c r="D17" s="85" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="23">
@@ -19618,10 +19655,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="84" t="s">
+        <v>688</v>
+      </c>
+      <c r="D18" s="85" t="s">
         <v>689</v>
-      </c>
-      <c r="D18" s="85" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="23">
@@ -19640,7 +19677,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D20" s="85" t="s">
         <v>46</v>
@@ -19665,7 +19702,7 @@
         <v>192</v>
       </c>
       <c r="D22" s="85" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="23">
@@ -19731,7 +19768,7 @@
         <v>52</v>
       </c>
       <c r="D28" s="85" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="23">
@@ -19761,10 +19798,10 @@
         <v>27</v>
       </c>
       <c r="C31" s="84" t="s">
+        <v>692</v>
+      </c>
+      <c r="D31" s="85" t="s">
         <v>693</v>
-      </c>
-      <c r="D31" s="85" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="23">
@@ -19775,7 +19812,7 @@
         <v>276</v>
       </c>
       <c r="D32" s="85" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="23">
@@ -19805,10 +19842,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="84" t="s">
+        <v>695</v>
+      </c>
+      <c r="D35" s="85" t="s">
         <v>696</v>
-      </c>
-      <c r="D35" s="85" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="23">
@@ -19816,10 +19853,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="84" t="s">
+        <v>697</v>
+      </c>
+      <c r="D36" s="85" t="s">
         <v>698</v>
-      </c>
-      <c r="D36" s="85" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="23">
@@ -19838,10 +19875,10 @@
         <v>34</v>
       </c>
       <c r="C38" s="84" t="s">
+        <v>699</v>
+      </c>
+      <c r="D38" s="85" t="s">
         <v>700</v>
-      </c>
-      <c r="D38" s="85" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="23">
@@ -19852,7 +19889,7 @@
         <v>500</v>
       </c>
       <c r="D39" s="85" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="23">
@@ -19863,7 +19900,7 @@
         <v>53</v>
       </c>
       <c r="D40" s="85" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="23">
@@ -19871,10 +19908,10 @@
         <v>37</v>
       </c>
       <c r="C41" s="84" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D41" s="85" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="23">
@@ -19882,10 +19919,10 @@
         <v>38</v>
       </c>
       <c r="C42" s="84" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D42" s="85" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="23">
@@ -19893,10 +19930,10 @@
         <v>39</v>
       </c>
       <c r="C43" s="84" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D43" s="85" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="23">
@@ -19904,10 +19941,10 @@
         <v>40</v>
       </c>
       <c r="C44" s="84" t="s">
+        <v>706</v>
+      </c>
+      <c r="D44" s="85" t="s">
         <v>707</v>
-      </c>
-      <c r="D44" s="85" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="23">
@@ -19915,10 +19952,10 @@
         <v>41</v>
       </c>
       <c r="C45" s="84" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D45" s="85" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="23">
@@ -19926,10 +19963,10 @@
         <v>42</v>
       </c>
       <c r="C46" s="84" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D46" s="85" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="23">
@@ -19937,10 +19974,10 @@
         <v>43</v>
       </c>
       <c r="C47" s="84" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D47" s="85" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="23">
@@ -19948,10 +19985,10 @@
         <v>44</v>
       </c>
       <c r="C48" s="84" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D48" s="85" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="23">
@@ -19959,10 +19996,10 @@
         <v>45</v>
       </c>
       <c r="C49" s="84" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D49" s="85" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -19991,19 +20028,19 @@
   <sheetData>
     <row r="2" spans="2:4" s="9" customFormat="1" ht="45">
       <c r="B2" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" spans="2:4" s="9" customFormat="1" ht="23"/>
     <row r="4" spans="2:4" ht="24" thickBot="1">
-      <c r="B4" s="164" t="s">
-        <v>680</v>
-      </c>
-      <c r="C4" s="168" t="s">
-        <v>715</v>
-      </c>
-      <c r="D4" s="169" t="s">
-        <v>581</v>
+      <c r="B4" s="136" t="s">
+        <v>679</v>
+      </c>
+      <c r="C4" s="140" t="s">
+        <v>714</v>
+      </c>
+      <c r="D4" s="141" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="24" thickTop="1">
@@ -20453,14 +20490,14 @@
     </row>
     <row r="3" spans="2:4" s="9" customFormat="1" ht="23"/>
     <row r="4" spans="2:4" ht="24" thickBot="1">
-      <c r="B4" s="164" t="s">
-        <v>680</v>
-      </c>
-      <c r="C4" s="168" t="s">
-        <v>722</v>
-      </c>
-      <c r="D4" s="169" t="s">
-        <v>581</v>
+      <c r="B4" s="136" t="s">
+        <v>679</v>
+      </c>
+      <c r="C4" s="140" t="s">
+        <v>721</v>
+      </c>
+      <c r="D4" s="141" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="24" thickTop="1">
@@ -20468,7 +20505,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D5" s="85" t="s">
         <v>1</v>
@@ -20479,7 +20516,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="84" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D6" s="85" t="s">
         <v>2</v>
@@ -20512,7 +20549,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D9" s="85" t="s">
         <v>5</v>
@@ -20523,7 +20560,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D10" s="85" t="s">
         <v>6</v>
@@ -20545,7 +20582,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D12" s="85" t="s">
         <v>8</v>
@@ -20589,7 +20626,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D16" s="85" t="s">
         <v>12</v>
@@ -20600,7 +20637,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D17" s="85" t="s">
         <v>13</v>
@@ -20611,7 +20648,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D18" s="85" t="s">
         <v>14</v>
@@ -20655,7 +20692,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="84" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D22" s="85" t="s">
         <v>19</v>
@@ -20721,7 +20758,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="84" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D28" s="85" t="s">
         <v>25</v>
@@ -20754,7 +20791,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="84" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D31" s="85" t="s">
         <v>28</v>
@@ -20765,7 +20802,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="84" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D32" s="85" t="s">
         <v>30</v>
@@ -20798,7 +20835,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="84" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D35" s="85" t="s">
         <v>33</v>
@@ -20809,7 +20846,7 @@
         <v>32</v>
       </c>
       <c r="C36" s="84" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D36" s="85" t="s">
         <v>34</v>
@@ -20831,7 +20868,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="84" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D38" s="85" t="s">
         <v>36</v>
@@ -20842,7 +20879,7 @@
         <v>35</v>
       </c>
       <c r="C39" s="84" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D39" s="85" t="s">
         <v>37</v>
@@ -20853,7 +20890,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="84" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D40" s="85" t="s">
         <v>38</v>
@@ -20864,10 +20901,10 @@
         <v>37</v>
       </c>
       <c r="C41" s="84" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D41" s="85" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="23">
@@ -20875,10 +20912,10 @@
         <v>38</v>
       </c>
       <c r="C42" s="84" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D42" s="85" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="23">
@@ -20886,10 +20923,10 @@
         <v>39</v>
       </c>
       <c r="C43" s="84" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D43" s="85" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="23">
@@ -20897,10 +20934,10 @@
         <v>40</v>
       </c>
       <c r="C44" s="84" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D44" s="85" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="23">
@@ -20908,10 +20945,10 @@
         <v>41</v>
       </c>
       <c r="C45" s="84" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D45" s="85" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="23">
@@ -20965,26 +21002,26 @@
   <sheetData>
     <row r="2" spans="2:7" s="9" customFormat="1" ht="45">
       <c r="B2" s="10" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" s="163" customFormat="1" ht="28" thickBot="1">
-      <c r="B4" s="164" t="s">
-        <v>680</v>
-      </c>
-      <c r="C4" s="165" t="s">
-        <v>716</v>
-      </c>
-      <c r="D4" s="166" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="135" customFormat="1" ht="28" thickBot="1">
+      <c r="B4" s="136" t="s">
+        <v>679</v>
+      </c>
+      <c r="C4" s="137" t="s">
+        <v>715</v>
+      </c>
+      <c r="D4" s="138" t="s">
+        <v>724</v>
+      </c>
+      <c r="E4" s="139" t="s">
         <v>725</v>
       </c>
-      <c r="E4" s="167" t="s">
-        <v>726</v>
-      </c>
-      <c r="F4" s="168" t="s">
+      <c r="F4" s="140" t="s">
         <v>502</v>
       </c>
-      <c r="G4" s="169" t="s">
+      <c r="G4" s="141" t="s">
         <v>503</v>
       </c>
     </row>
@@ -21348,7 +21385,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="76" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E21" s="81" t="s">
         <v>49</v>
@@ -21370,10 +21407,10 @@
         <v>12</v>
       </c>
       <c r="D22" s="75" t="s">
+        <v>727</v>
+      </c>
+      <c r="E22" s="80" t="s">
         <v>728</v>
-      </c>
-      <c r="E22" s="80" t="s">
-        <v>729</v>
       </c>
       <c r="F22" s="84" t="str">
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(C22, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
@@ -21395,7 +21432,7 @@
         <v>197</v>
       </c>
       <c r="E23" s="80" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F23" s="84" t="str">
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(C23, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
@@ -21417,7 +21454,7 @@
         <v>205</v>
       </c>
       <c r="E24" s="80" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F24" s="84" t="str">
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(C24, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
@@ -21436,10 +21473,10 @@
         <v>18</v>
       </c>
       <c r="D25" s="76" t="s">
+        <v>731</v>
+      </c>
+      <c r="E25" s="81" t="s">
         <v>732</v>
-      </c>
-      <c r="E25" s="81" t="s">
-        <v>733</v>
       </c>
       <c r="F25" s="84" t="str">
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(C25, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
@@ -21593,7 +21630,7 @@
         <v>496</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F32" s="84" t="str">
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(C32, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
@@ -21615,7 +21652,7 @@
         <v>499</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F33" s="84" t="str">
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(C33, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
@@ -21747,7 +21784,7 @@
         <v>44</v>
       </c>
       <c r="E39" s="81" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F39" s="84" t="str">
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(C39, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
@@ -21791,7 +21828,7 @@
         <v>460</v>
       </c>
       <c r="E41" s="83" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F41" s="84" t="str">
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(C41, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
@@ -21835,7 +21872,7 @@
         <v>223</v>
       </c>
       <c r="E43" s="83" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F43" s="84" t="str">
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(C43, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
@@ -21873,7 +21910,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="73" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D45" s="79">
         <v>0</v>
@@ -21895,7 +21932,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="73" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D46" s="79">
         <v>0</v>
@@ -21917,7 +21954,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="73" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D47" s="79">
         <v>0</v>
@@ -21939,7 +21976,7 @@
         <v>44</v>
       </c>
       <c r="C48" s="73" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D48" s="79">
         <v>0</v>
@@ -21961,7 +21998,7 @@
         <v>45</v>
       </c>
       <c r="C49" s="73" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D49" s="79">
         <v>0</v>
@@ -22046,8 +22083,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="120"/>
-      <c r="AS1" s="120"/>
+      <c r="AR1" s="147"/>
+      <c r="AS1" s="147"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -22153,8 +22190,8 @@
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
-      <c r="AS2" s="121"/>
-      <c r="AT2" s="121"/>
+      <c r="AS2" s="152"/>
+      <c r="AT2" s="152"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
@@ -22331,8 +22368,8 @@
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
-      <c r="AS4" s="120"/>
-      <c r="AT4" s="120"/>
+      <c r="AS4" s="147"/>
+      <c r="AT4" s="147"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
@@ -22424,8 +22461,8 @@
       </c>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
-      <c r="AS5" s="121"/>
-      <c r="AT5" s="121"/>
+      <c r="AS5" s="152"/>
+      <c r="AT5" s="152"/>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -22581,8 +22618,8 @@
       <c r="AP7" s="61"/>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
-      <c r="AS7" s="120"/>
-      <c r="AT7" s="120"/>
+      <c r="AS7" s="147"/>
+      <c r="AT7" s="147"/>
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
@@ -22666,8 +22703,8 @@
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
-      <c r="AS8" s="121"/>
-      <c r="AT8" s="121"/>
+      <c r="AS8" s="152"/>
+      <c r="AT8" s="152"/>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
@@ -22824,8 +22861,8 @@
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
-      <c r="AS10" s="120"/>
-      <c r="AT10" s="120"/>
+      <c r="AS10" s="147"/>
+      <c r="AT10" s="147"/>
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
@@ -22915,8 +22952,8 @@
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2"/>
-      <c r="AS11" s="121"/>
-      <c r="AT11" s="121"/>
+      <c r="AS11" s="152"/>
+      <c r="AT11" s="152"/>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -23085,8 +23122,8 @@
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
-      <c r="AS13" s="120"/>
-      <c r="AT13" s="120"/>
+      <c r="AS13" s="147"/>
+      <c r="AT13" s="147"/>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
@@ -23134,8 +23171,8 @@
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
-      <c r="AQ14" s="120"/>
-      <c r="AR14" s="120"/>
+      <c r="AQ14" s="147"/>
+      <c r="AR14" s="147"/>
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
@@ -23735,7 +23772,7 @@
     </row>
     <row r="19" spans="1:57" s="9" customFormat="1" ht="38" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C19" s="84" t="str">
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(C16, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
@@ -23745,8 +23782,8 @@
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(D16, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
         <v>P</v>
       </c>
-      <c r="E19" s="170" t="s">
-        <v>659</v>
+      <c r="E19" s="142" t="s">
+        <v>658</v>
       </c>
       <c r="F19" s="84" t="str">
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(F16, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
@@ -23760,8 +23797,8 @@
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(H16, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
         <v>T</v>
       </c>
-      <c r="I19" s="170" t="s">
-        <v>739</v>
+      <c r="I19" s="142" t="s">
+        <v>738</v>
       </c>
       <c r="J19" s="84" t="str">
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(J16, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
@@ -23783,8 +23820,8 @@
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(N16, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
         <v>g</v>
       </c>
-      <c r="O19" s="170" t="s">
-        <v>629</v>
+      <c r="O19" s="142" t="s">
+        <v>628</v>
       </c>
       <c r="P19" s="84" t="str">
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(P16, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
@@ -23802,17 +23839,17 @@
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(S16, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
         <v>z</v>
       </c>
-      <c r="T19" s="170" t="s">
+      <c r="T19" s="142" t="s">
+        <v>745</v>
+      </c>
+      <c r="U19" s="142" t="s">
         <v>746</v>
       </c>
-      <c r="U19" s="170" t="s">
+      <c r="V19" s="142" t="s">
+        <v>80</v>
+      </c>
+      <c r="W19" s="142" t="s">
         <v>747</v>
-      </c>
-      <c r="V19" s="170" t="s">
-        <v>80</v>
-      </c>
-      <c r="W19" s="170" t="s">
-        <v>748</v>
       </c>
       <c r="X19" s="84" t="str">
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(X16, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
@@ -23830,7 +23867,7 @@
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(AA16, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
         <v>o</v>
       </c>
-      <c r="AB19" s="172" t="str">
+      <c r="AB19" s="144" t="str">
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(AB16, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
         <v>ø</v>
       </c>
@@ -23854,27 +23891,27 @@
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(AG16, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
         <v>U</v>
       </c>
-      <c r="AH19" s="170" t="s">
+      <c r="AH19" s="142" t="s">
+        <v>743</v>
+      </c>
+      <c r="AI19" s="142" t="s">
         <v>744</v>
       </c>
-      <c r="AI19" s="170" t="s">
-        <v>745</v>
-      </c>
-      <c r="AJ19" s="171" t="s">
-        <v>743</v>
+      <c r="AJ19" s="143" t="s">
+        <v>742</v>
       </c>
       <c r="AK19" s="84" t="str">
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(AK16, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
         <v>D</v>
       </c>
-      <c r="AL19" s="171" t="s">
+      <c r="AL19" s="143" t="s">
+        <v>739</v>
+      </c>
+      <c r="AM19" s="143" t="s">
+        <v>741</v>
+      </c>
+      <c r="AN19" s="142" t="s">
         <v>740</v>
-      </c>
-      <c r="AM19" s="171" t="s">
-        <v>742</v>
-      </c>
-      <c r="AN19" s="170" t="s">
-        <v>741</v>
       </c>
       <c r="AO19" s="84" t="str">
         <f xml:space="preserve"> IFERROR( INDEX('(2）方音符號編編碼'!$C$5:$C$30, MATCH(AO16, '(2）方音符號編編碼'!$D$5:$D$30, 0), 1), "")</f>
@@ -23989,7 +24026,7 @@
         <f xml:space="preserve"> IFERROR( INDEX( '(3)按鍵與顯示'!$C$5:$C$45, MATCH(V16, '(3)按鍵與顯示'!$D$5:$D$45, 0), 1), "")</f>
         <v>v</v>
       </c>
-      <c r="W20" s="173" t="s">
+      <c r="W20" s="145" t="s">
         <v>121</v>
       </c>
       <c r="X20" s="85" t="str">
@@ -24036,7 +24073,7 @@
         <f xml:space="preserve"> IFERROR( INDEX( '(3)按鍵與顯示'!$C$5:$C$45, MATCH(AH16, '(3)按鍵與顯示'!$D$5:$D$45, 0), 1), "")</f>
         <v>,</v>
       </c>
-      <c r="AI20" s="173" t="str">
+      <c r="AI20" s="145" t="str">
         <f>AH20</f>
         <v>,</v>
       </c>
@@ -24528,8 +24565,8 @@
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
       <c r="AQ27" s="1"/>
-      <c r="AR27" s="120"/>
-      <c r="AS27" s="120"/>
+      <c r="AR27" s="147"/>
+      <c r="AS27" s="147"/>
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
@@ -24555,17 +24592,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AR27:AS27"/>
+    <mergeCell ref="AS13:AT13"/>
+    <mergeCell ref="AQ14:AR14"/>
+    <mergeCell ref="AS11:AT11"/>
+    <mergeCell ref="AS10:AT10"/>
     <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="AS8:AT8"/>
     <mergeCell ref="AS7:AT7"/>
     <mergeCell ref="AS5:AT5"/>
     <mergeCell ref="AS4:AT4"/>
     <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AR27:AS27"/>
-    <mergeCell ref="AS13:AT13"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="AS10:AT10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24633,8 +24670,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="120"/>
-      <c r="AR1" s="120"/>
+      <c r="AQ1" s="147"/>
+      <c r="AR1" s="147"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -25389,7 +25426,7 @@
     </row>
     <row r="7" spans="1:47" s="9" customFormat="1" ht="23">
       <c r="B7" s="11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C7" s="84" t="str">
         <f>'(5)鍵盤表'!C19</f>
@@ -25911,66 +25948,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C11" s="116" t="str">
+      <c r="C11" s="148" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPbtTdkKhgcCsziuaoøeBGIUDN</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="116"/>
-      <c r="W11" s="116"/>
-      <c r="X11" s="116"/>
-      <c r="Y11" s="116"/>
-      <c r="Z11" s="116"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="148"/>
+      <c r="U11" s="148"/>
+      <c r="V11" s="148"/>
+      <c r="W11" s="148"/>
+      <c r="X11" s="148"/>
+      <c r="Y11" s="148"/>
+      <c r="Z11" s="148"/>
     </row>
     <row r="12" spans="1:47" s="9" customFormat="1" ht="23">
       <c r="B12" s="12" t="str">
         <f>B8</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C12" s="117" t="str">
+      <c r="C12" s="149" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="117"/>
-      <c r="R12" s="117"/>
-      <c r="S12" s="117"/>
-      <c r="T12" s="117"/>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="117"/>
-      <c r="X12" s="117"/>
-      <c r="Y12" s="117"/>
-      <c r="Z12" s="117"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="149"/>
+      <c r="O12" s="149"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="149"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="149"/>
+      <c r="T12" s="149"/>
+      <c r="U12" s="149"/>
+      <c r="V12" s="149"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="149"/>
     </row>
     <row r="13" spans="1:47" s="9" customFormat="1" ht="23"/>
     <row r="14" spans="1:47" s="9" customFormat="1" ht="45">
@@ -25979,34 +26016,34 @@
       </c>
     </row>
     <row r="15" spans="1:47" s="9" customFormat="1" ht="23">
-      <c r="B15" s="119" t="str">
+      <c r="B15" s="151" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C11 &amp; "|" &amp; C12 &amp; "|"</f>
         <v>- xlit|pPbtTdkKhgcCsziuaoøeBGIUDN|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
-      <c r="T15" s="119"/>
-      <c r="U15" s="119"/>
-      <c r="V15" s="119"/>
-      <c r="W15" s="119"/>
-      <c r="X15" s="119"/>
-      <c r="Y15" s="119"/>
-      <c r="Z15" s="119"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="151"/>
+      <c r="S15" s="151"/>
+      <c r="T15" s="151"/>
+      <c r="U15" s="151"/>
+      <c r="V15" s="151"/>
+      <c r="W15" s="151"/>
+      <c r="X15" s="151"/>
+      <c r="Y15" s="151"/>
+      <c r="Z15" s="151"/>
     </row>
     <row r="16" spans="1:47" s="9" customFormat="1" ht="23"/>
     <row r="17" spans="2:26" s="9" customFormat="1" ht="45">
@@ -26020,66 +26057,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C19" s="116" t="str">
+      <c r="C19" s="148" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPbtTdkKhgcCsziuaoøeBGIUDN</v>
       </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="116"/>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="116"/>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="V19" s="116"/>
-      <c r="W19" s="116"/>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="116"/>
-      <c r="Z19" s="116"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="148"/>
+      <c r="S19" s="148"/>
+      <c r="T19" s="148"/>
+      <c r="U19" s="148"/>
+      <c r="V19" s="148"/>
+      <c r="W19" s="148"/>
+      <c r="X19" s="148"/>
+      <c r="Y19" s="148"/>
+      <c r="Z19" s="148"/>
     </row>
     <row r="20" spans="2:26" s="9" customFormat="1" ht="23">
       <c r="B20" s="7" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C20" s="117" t="str">
+      <c r="C20" s="149" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT( C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="117"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="117"/>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="117"/>
-      <c r="Z20" s="117"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="149"/>
+      <c r="K20" s="149"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="149"/>
+      <c r="O20" s="149"/>
+      <c r="P20" s="149"/>
+      <c r="Q20" s="149"/>
+      <c r="R20" s="149"/>
+      <c r="S20" s="149"/>
+      <c r="T20" s="149"/>
+      <c r="U20" s="149"/>
+      <c r="V20" s="149"/>
+      <c r="W20" s="149"/>
+      <c r="X20" s="149"/>
+      <c r="Y20" s="149"/>
+      <c r="Z20" s="149"/>
     </row>
     <row r="21" spans="2:26" s="9" customFormat="1" ht="23"/>
     <row r="22" spans="2:26" s="9" customFormat="1" ht="45">
@@ -26088,34 +26125,34 @@
       </c>
     </row>
     <row r="23" spans="2:26" s="9" customFormat="1" ht="23">
-      <c r="B23" s="119" t="str">
+      <c r="B23" s="151" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C19 &amp; "|" &amp; C20 &amp; "|"</f>
         <v>- xlit|pPbtTdkKhgcCsziuaoøeBGIUDN|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="119"/>
-      <c r="T23" s="119"/>
-      <c r="U23" s="119"/>
-      <c r="V23" s="119"/>
-      <c r="W23" s="119"/>
-      <c r="X23" s="119"/>
-      <c r="Y23" s="119"/>
-      <c r="Z23" s="119"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="151"/>
+      <c r="P23" s="151"/>
+      <c r="Q23" s="151"/>
+      <c r="R23" s="151"/>
+      <c r="S23" s="151"/>
+      <c r="T23" s="151"/>
+      <c r="U23" s="151"/>
+      <c r="V23" s="151"/>
+      <c r="W23" s="151"/>
+      <c r="X23" s="151"/>
+      <c r="Y23" s="151"/>
+      <c r="Z23" s="151"/>
     </row>
     <row r="24" spans="2:26" s="9" customFormat="1" ht="23"/>
     <row r="25" spans="2:26" s="9" customFormat="1" ht="45">
@@ -26129,66 +26166,66 @@
         <f>B12</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C27" s="116" t="str">
+      <c r="C27" s="148" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="116"/>
-      <c r="P27" s="116"/>
-      <c r="Q27" s="116"/>
-      <c r="R27" s="116"/>
-      <c r="S27" s="116"/>
-      <c r="T27" s="116"/>
-      <c r="U27" s="116"/>
-      <c r="V27" s="116"/>
-      <c r="W27" s="116"/>
-      <c r="X27" s="116"/>
-      <c r="Y27" s="116"/>
-      <c r="Z27" s="116"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="148"/>
+      <c r="O27" s="148"/>
+      <c r="P27" s="148"/>
+      <c r="Q27" s="148"/>
+      <c r="R27" s="148"/>
+      <c r="S27" s="148"/>
+      <c r="T27" s="148"/>
+      <c r="U27" s="148"/>
+      <c r="V27" s="148"/>
+      <c r="W27" s="148"/>
+      <c r="X27" s="148"/>
+      <c r="Y27" s="148"/>
+      <c r="Z27" s="148"/>
     </row>
     <row r="28" spans="2:26" s="9" customFormat="1" ht="23">
       <c r="B28" s="7" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C28" s="117" t="str">
+      <c r="C28" s="149" t="str">
         <f>_xlfn.CONCAT(C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="117"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
-      <c r="O28" s="117"/>
-      <c r="P28" s="117"/>
-      <c r="Q28" s="117"/>
-      <c r="R28" s="117"/>
-      <c r="S28" s="117"/>
-      <c r="T28" s="117"/>
-      <c r="U28" s="117"/>
-      <c r="V28" s="117"/>
-      <c r="W28" s="117"/>
-      <c r="X28" s="117"/>
-      <c r="Y28" s="117"/>
-      <c r="Z28" s="117"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
+      <c r="N28" s="149"/>
+      <c r="O28" s="149"/>
+      <c r="P28" s="149"/>
+      <c r="Q28" s="149"/>
+      <c r="R28" s="149"/>
+      <c r="S28" s="149"/>
+      <c r="T28" s="149"/>
+      <c r="U28" s="149"/>
+      <c r="V28" s="149"/>
+      <c r="W28" s="149"/>
+      <c r="X28" s="149"/>
+      <c r="Y28" s="149"/>
+      <c r="Z28" s="149"/>
     </row>
     <row r="29" spans="2:26" s="9" customFormat="1" ht="23"/>
     <row r="30" spans="2:26" s="9" customFormat="1" ht="45">
@@ -26197,34 +26234,34 @@
       </c>
     </row>
     <row r="31" spans="2:26" s="9" customFormat="1" ht="23">
-      <c r="B31" s="119" t="str">
+      <c r="B31" s="151" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C27 &amp; "|" &amp; C28 &amp; "|"</f>
         <v>- xlit|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C31" s="119"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="119"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="119"/>
-      <c r="M31" s="119"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="119"/>
-      <c r="T31" s="119"/>
-      <c r="U31" s="119"/>
-      <c r="V31" s="119"/>
-      <c r="W31" s="119"/>
-      <c r="X31" s="119"/>
-      <c r="Y31" s="119"/>
-      <c r="Z31" s="119"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="151"/>
+      <c r="M31" s="151"/>
+      <c r="N31" s="151"/>
+      <c r="O31" s="151"/>
+      <c r="P31" s="151"/>
+      <c r="Q31" s="151"/>
+      <c r="R31" s="151"/>
+      <c r="S31" s="151"/>
+      <c r="T31" s="151"/>
+      <c r="U31" s="151"/>
+      <c r="V31" s="151"/>
+      <c r="W31" s="151"/>
+      <c r="X31" s="151"/>
+      <c r="Y31" s="151"/>
+      <c r="Z31" s="151"/>
     </row>
     <row r="32" spans="2:26" s="9" customFormat="1" ht="23"/>
     <row r="33" spans="1:47" s="8" customFormat="1" ht="25">
@@ -26515,8 +26552,8 @@
       <c r="AN38" s="1"/>
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
-      <c r="AQ38" s="120"/>
-      <c r="AR38" s="120"/>
+      <c r="AQ38" s="147"/>
+      <c r="AR38" s="147"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1"/>
       <c r="AU38" s="1"/>
@@ -26524,17 +26561,17 @@
     <row r="39" spans="1:47" s="9" customFormat="1" ht="23"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B23:Z23"/>
+    <mergeCell ref="C27:Z27"/>
+    <mergeCell ref="C28:Z28"/>
+    <mergeCell ref="B31:Z31"/>
+    <mergeCell ref="AQ38:AR38"/>
     <mergeCell ref="C20:Z20"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="C11:Z11"/>
     <mergeCell ref="C12:Z12"/>
     <mergeCell ref="B15:Z15"/>
     <mergeCell ref="C19:Z19"/>
-    <mergeCell ref="B23:Z23"/>
-    <mergeCell ref="C27:Z27"/>
-    <mergeCell ref="C28:Z28"/>
-    <mergeCell ref="B31:Z31"/>
-    <mergeCell ref="AQ38:AR38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26554,847 +26591,830 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.5" defaultRowHeight="22" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="0.69921875" style="123" customWidth="1"/>
-    <col min="2" max="2" width="8.8984375" style="122" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" style="122" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="122" customWidth="1"/>
-    <col min="5" max="5" width="9" style="122" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="122" customWidth="1"/>
-    <col min="7" max="7" width="9" style="122" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="122" customWidth="1"/>
-    <col min="9" max="9" width="9" style="122" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="122" customWidth="1"/>
-    <col min="11" max="11" width="9" style="122" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="122" customWidth="1"/>
-    <col min="13" max="13" width="9" style="122" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="122" customWidth="1"/>
-    <col min="15" max="15" width="9" style="122" customWidth="1"/>
-    <col min="16" max="16" width="13.5" style="122" customWidth="1"/>
-    <col min="17" max="16384" width="5.5" style="123"/>
+    <col min="1" max="1" width="0.69921875" style="117" customWidth="1"/>
+    <col min="2" max="2" width="8.8984375" style="116" customWidth="1"/>
+    <col min="3" max="3" width="5.59765625" style="116" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="116" customWidth="1"/>
+    <col min="5" max="5" width="9" style="116" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="116" customWidth="1"/>
+    <col min="7" max="7" width="9" style="116" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="116" customWidth="1"/>
+    <col min="9" max="9" width="9" style="116" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="116" customWidth="1"/>
+    <col min="11" max="11" width="9" style="116" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="116" customWidth="1"/>
+    <col min="13" max="13" width="9" style="116" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="116" customWidth="1"/>
+    <col min="15" max="15" width="9" style="116" customWidth="1"/>
+    <col min="16" max="16" width="13.5" style="116" customWidth="1"/>
+    <col min="17" max="16384" width="5.5" style="117"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="9" hidden="1" customHeight="1" outlineLevel="1"/>
-    <row r="2" spans="2:16" s="125" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="124" t="s">
+    <row r="2" spans="2:16" s="118" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B2" s="174" t="s">
+        <v>582</v>
+      </c>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174" t="s">
         <v>583</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124" t="s">
+      <c r="F2" s="174"/>
+      <c r="G2" s="174" t="s">
         <v>584</v>
       </c>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124" t="s">
+      <c r="H2" s="174"/>
+      <c r="I2" s="174" t="s">
         <v>585</v>
       </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124" t="s">
+      <c r="J2" s="174"/>
+      <c r="K2" s="174" t="s">
         <v>586</v>
       </c>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124" t="s">
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174" t="s">
         <v>587</v>
       </c>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124" t="s">
+      <c r="P2" s="174"/>
+    </row>
+    <row r="3" spans="2:16" s="118" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B3" s="174" t="s">
         <v>588</v>
       </c>
-      <c r="P2" s="124"/>
-    </row>
-    <row r="3" spans="2:16" s="125" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B3" s="124" t="s">
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174" t="s">
+        <v>583</v>
+      </c>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174" t="s">
         <v>589</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124" t="s">
-        <v>584</v>
-      </c>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124" t="s">
+      <c r="H3" s="174"/>
+      <c r="I3" s="174" t="s">
         <v>590</v>
       </c>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124" t="s">
+      <c r="J3" s="174"/>
+      <c r="K3" s="174" t="s">
         <v>591</v>
       </c>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124" t="s">
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174" t="s">
+        <v>587</v>
+      </c>
+      <c r="P3" s="174"/>
+    </row>
+    <row r="4" spans="2:16" s="118" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B4" s="174" t="s">
         <v>592</v>
       </c>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124" t="s">
-        <v>588</v>
-      </c>
-      <c r="P3" s="124"/>
-    </row>
-    <row r="4" spans="2:16" s="125" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B4" s="124" t="s">
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174" t="s">
+        <v>583</v>
+      </c>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174" t="s">
         <v>593</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124" t="s">
-        <v>584</v>
-      </c>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124" t="s">
+      <c r="H4" s="174"/>
+      <c r="I4" s="174" t="s">
+        <v>590</v>
+      </c>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174" t="s">
         <v>594</v>
       </c>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124" t="s">
-        <v>591</v>
-      </c>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124" t="s">
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="174" t="s">
+        <v>587</v>
+      </c>
+      <c r="P4" s="174"/>
+    </row>
+    <row r="5" spans="2:16" s="118" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B5" s="174" t="s">
         <v>595</v>
       </c>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124" t="s">
-        <v>588</v>
-      </c>
-      <c r="P4" s="124"/>
-    </row>
-    <row r="5" spans="2:16" s="125" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="124" t="s">
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174" t="s">
         <v>596</v>
       </c>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124" t="s">
+      <c r="F5" s="174"/>
+      <c r="G5" s="174" t="s">
         <v>597</v>
       </c>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124" t="s">
+      <c r="H5" s="174"/>
+      <c r="I5" s="174" t="s">
         <v>598</v>
       </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124" t="s">
+      <c r="J5" s="174"/>
+      <c r="K5" s="174" t="s">
+        <v>597</v>
+      </c>
+      <c r="L5" s="174"/>
+      <c r="M5" s="174"/>
+      <c r="N5" s="174"/>
+      <c r="O5" s="174" t="s">
         <v>599</v>
       </c>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124" t="s">
-        <v>598</v>
-      </c>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124" t="s">
-        <v>600</v>
-      </c>
-      <c r="P5" s="124"/>
+      <c r="P5" s="174"/>
     </row>
     <row r="6" spans="2:16" ht="9" customHeight="1" collapsed="1"/>
     <row r="7" spans="2:16" ht="70" customHeight="1">
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="167" t="s">
+        <v>600</v>
+      </c>
+      <c r="C7" s="168"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="170" t="s">
+        <v>596</v>
+      </c>
+      <c r="F7" s="171"/>
+      <c r="G7" s="162" t="s">
         <v>601</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="129" t="s">
-        <v>597</v>
-      </c>
-      <c r="F7" s="130"/>
-      <c r="G7" s="131" t="s">
+      <c r="H7" s="163"/>
+      <c r="I7" s="172" t="s">
         <v>602</v>
       </c>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133" t="s">
+      <c r="J7" s="173"/>
+      <c r="K7" s="162" t="s">
         <v>603</v>
       </c>
-      <c r="J7" s="134"/>
-      <c r="K7" s="131" t="s">
+      <c r="L7" s="163"/>
+      <c r="M7" s="162" t="s">
         <v>604</v>
       </c>
-      <c r="L7" s="132"/>
-      <c r="M7" s="131" t="s">
+      <c r="N7" s="163"/>
+      <c r="O7" s="162" t="s">
         <v>605</v>
       </c>
-      <c r="N7" s="132"/>
-      <c r="O7" s="131" t="s">
+      <c r="P7" s="163"/>
+    </row>
+    <row r="8" spans="2:16" ht="39" customHeight="1">
+      <c r="B8" s="153" t="s">
         <v>606</v>
       </c>
-      <c r="P7" s="132"/>
-    </row>
-    <row r="8" spans="2:16" ht="39" customHeight="1">
-      <c r="B8" s="135" t="s">
+      <c r="C8" s="164" t="s">
         <v>607</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="D8" s="165" t="s">
         <v>608</v>
       </c>
-      <c r="D8" s="137" t="s">
+      <c r="E8" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="120" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="120" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="121" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="120" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="121"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="122" t="s">
         <v>609</v>
       </c>
-      <c r="E8" s="138" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="140" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="139" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="140" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="139" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="140"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="141" t="s">
+      <c r="P8" s="123" t="s">
         <v>610</v>
       </c>
-      <c r="P8" s="142" t="s">
+    </row>
+    <row r="9" spans="2:16" ht="39" customHeight="1">
+      <c r="B9" s="153"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="124" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" ht="39" customHeight="1">
-      <c r="B9" s="135"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="143" t="s">
+      <c r="F9" s="125" t="s">
         <v>612</v>
       </c>
-      <c r="F9" s="144" t="s">
+      <c r="G9" s="126" t="s">
         <v>613</v>
       </c>
-      <c r="G9" s="145" t="s">
+      <c r="H9" s="125" t="s">
         <v>614</v>
       </c>
-      <c r="H9" s="144" t="s">
+      <c r="I9" s="126" t="s">
         <v>615</v>
       </c>
-      <c r="I9" s="145" t="s">
+      <c r="J9" s="125" t="s">
         <v>616</v>
       </c>
-      <c r="J9" s="144" t="s">
+      <c r="K9" s="126"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="127" t="s">
         <v>617</v>
       </c>
-      <c r="K9" s="145"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="146" t="s">
+      <c r="P9" s="125" t="s">
         <v>618</v>
       </c>
-      <c r="P9" s="144" t="s">
+    </row>
+    <row r="10" spans="2:16" ht="39" customHeight="1">
+      <c r="B10" s="153"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="161" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" ht="39" customHeight="1">
-      <c r="B10" s="135"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="147" t="s">
+      <c r="E10" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="120" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="121"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="120"/>
+    </row>
+    <row r="11" spans="2:16" ht="39" customHeight="1">
+      <c r="B11" s="153"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="124" t="s">
         <v>620</v>
       </c>
-      <c r="E10" s="138" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="139" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="140" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="139" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="140" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="139" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="140"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="140"/>
-      <c r="N10" s="139"/>
-      <c r="O10" s="140"/>
-      <c r="P10" s="139"/>
-    </row>
-    <row r="11" spans="2:16" ht="39" customHeight="1">
-      <c r="B11" s="135"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="143" t="s">
+      <c r="F11" s="125" t="s">
         <v>621</v>
       </c>
-      <c r="F11" s="144" t="s">
+      <c r="G11" s="126" t="s">
         <v>622</v>
       </c>
-      <c r="G11" s="145" t="s">
+      <c r="H11" s="125" t="s">
         <v>623</v>
       </c>
-      <c r="H11" s="144" t="s">
+      <c r="I11" s="126" t="s">
         <v>624</v>
       </c>
-      <c r="I11" s="145" t="s">
+      <c r="J11" s="125" t="s">
         <v>625</v>
       </c>
-      <c r="J11" s="144" t="s">
+      <c r="K11" s="126"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="125"/>
+    </row>
+    <row r="12" spans="2:16" ht="39" customHeight="1">
+      <c r="B12" s="153"/>
+      <c r="C12" s="154" t="s">
         <v>626</v>
       </c>
-      <c r="K11" s="145"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="145"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="144"/>
-    </row>
-    <row r="12" spans="2:16" ht="39" customHeight="1">
-      <c r="B12" s="135"/>
-      <c r="C12" s="148" t="s">
+      <c r="D12" s="166" t="s">
         <v>627</v>
       </c>
-      <c r="D12" s="149" t="s">
-        <v>628</v>
-      </c>
-      <c r="E12" s="138" t="s">
+      <c r="E12" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="139" t="s">
+      <c r="F12" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="140"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="140" t="s">
+      <c r="G12" s="121"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="139" t="s">
+      <c r="J12" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="K12" s="140"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="139"/>
-      <c r="O12" s="140"/>
-      <c r="P12" s="139"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="120"/>
     </row>
     <row r="13" spans="2:16" ht="39" customHeight="1">
-      <c r="B13" s="135"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="143" t="s">
+      <c r="B13" s="153"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="124" t="s">
+        <v>629</v>
+      </c>
+      <c r="F13" s="125" t="s">
+        <v>678</v>
+      </c>
+      <c r="G13" s="126"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126" t="s">
         <v>630</v>
       </c>
-      <c r="F13" s="144" t="s">
-        <v>679</v>
-      </c>
-      <c r="G13" s="145"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="145" t="s">
+      <c r="J13" s="125" t="s">
         <v>631</v>
       </c>
-      <c r="J13" s="144" t="s">
+      <c r="K13" s="126"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="125"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="125"/>
+    </row>
+    <row r="14" spans="2:16" ht="39" customHeight="1">
+      <c r="B14" s="153" t="s">
         <v>632</v>
       </c>
-      <c r="K13" s="145"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="144"/>
-    </row>
-    <row r="14" spans="2:16" ht="39" customHeight="1">
-      <c r="B14" s="135" t="s">
+      <c r="C14" s="159" t="s">
+        <v>607</v>
+      </c>
+      <c r="D14" s="155" t="s">
+        <v>608</v>
+      </c>
+      <c r="E14" s="119"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="128" t="s">
         <v>633</v>
       </c>
-      <c r="C14" s="150" t="s">
-        <v>608</v>
-      </c>
-      <c r="D14" s="151" t="s">
-        <v>609</v>
-      </c>
-      <c r="E14" s="138"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="140" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="152" t="s">
-        <v>97</v>
-      </c>
-      <c r="M14" s="140" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" s="152" t="s">
+      <c r="O14" s="121"/>
+      <c r="P14" s="120"/>
+    </row>
+    <row r="15" spans="2:16" ht="39" customHeight="1">
+      <c r="B15" s="153"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="126" t="s">
         <v>634</v>
       </c>
-      <c r="O14" s="140"/>
-      <c r="P14" s="139"/>
-    </row>
-    <row r="15" spans="2:16" ht="39" customHeight="1">
-      <c r="B15" s="135"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="145" t="s">
+      <c r="L15" s="125" t="s">
         <v>635</v>
       </c>
-      <c r="L15" s="144" t="s">
+      <c r="M15" s="126" t="s">
         <v>636</v>
       </c>
-      <c r="M15" s="145" t="s">
+      <c r="N15" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="N15" s="144" t="s">
+      <c r="O15" s="126"/>
+      <c r="P15" s="125"/>
+    </row>
+    <row r="16" spans="2:16" ht="39" customHeight="1">
+      <c r="B16" s="153"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="161" t="s">
+        <v>619</v>
+      </c>
+      <c r="E16" s="119"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="121" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" s="128" t="s">
         <v>638</v>
       </c>
-      <c r="O15" s="145"/>
-      <c r="P15" s="144"/>
-    </row>
-    <row r="16" spans="2:16" ht="39" customHeight="1">
-      <c r="B16" s="135"/>
-      <c r="C16" s="150"/>
-      <c r="D16" s="147" t="s">
-        <v>620</v>
-      </c>
-      <c r="E16" s="138"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="140" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="M16" s="140" t="s">
-        <v>79</v>
-      </c>
-      <c r="N16" s="152" t="s">
+      <c r="O16" s="121"/>
+      <c r="P16" s="120"/>
+    </row>
+    <row r="17" spans="2:17" ht="39" customHeight="1">
+      <c r="B17" s="153"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="126" t="s">
         <v>639</v>
       </c>
-      <c r="O16" s="140"/>
-      <c r="P16" s="139"/>
-    </row>
-    <row r="17" spans="2:17" ht="39" customHeight="1">
-      <c r="B17" s="135"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="145" t="s">
+      <c r="L17" s="125" t="s">
         <v>640</v>
       </c>
-      <c r="L17" s="144" t="s">
+      <c r="M17" s="126" t="s">
         <v>641</v>
       </c>
-      <c r="M17" s="145" t="s">
+      <c r="N17" s="125" t="s">
         <v>642</v>
       </c>
-      <c r="N17" s="144" t="s">
+      <c r="O17" s="126"/>
+      <c r="P17" s="125"/>
+    </row>
+    <row r="18" spans="2:17" ht="39" customHeight="1">
+      <c r="B18" s="153"/>
+      <c r="C18" s="154" t="s">
+        <v>626</v>
+      </c>
+      <c r="D18" s="155" t="s">
+        <v>627</v>
+      </c>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="121" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="128" t="s">
         <v>643</v>
       </c>
-      <c r="O17" s="145"/>
-      <c r="P17" s="144"/>
-    </row>
-    <row r="18" spans="2:17" ht="39" customHeight="1">
-      <c r="B18" s="135"/>
-      <c r="C18" s="148" t="s">
+      <c r="M18" s="121" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" s="128" t="s">
+        <v>644</v>
+      </c>
+      <c r="O18" s="121"/>
+      <c r="P18" s="120"/>
+    </row>
+    <row r="19" spans="2:17" ht="39" customHeight="1">
+      <c r="B19" s="153"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="126" t="s">
+        <v>645</v>
+      </c>
+      <c r="L19" s="125" t="s">
+        <v>646</v>
+      </c>
+      <c r="M19" s="126" t="s">
+        <v>647</v>
+      </c>
+      <c r="N19" s="125" t="s">
+        <v>648</v>
+      </c>
+      <c r="O19" s="126"/>
+      <c r="P19" s="125"/>
+    </row>
+    <row r="20" spans="2:17" ht="39" customHeight="1">
+      <c r="B20" s="153" t="s">
+        <v>649</v>
+      </c>
+      <c r="C20" s="159" t="s">
+        <v>607</v>
+      </c>
+      <c r="D20" s="155" t="s">
         <v>627</v>
       </c>
-      <c r="D18" s="151" t="s">
-        <v>628</v>
-      </c>
-      <c r="E18" s="138"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="140" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" s="152" t="s">
-        <v>644</v>
-      </c>
-      <c r="M18" s="140" t="s">
-        <v>81</v>
-      </c>
-      <c r="N18" s="152" t="s">
-        <v>645</v>
-      </c>
-      <c r="O18" s="140"/>
-      <c r="P18" s="139"/>
-    </row>
-    <row r="19" spans="2:17" ht="39" customHeight="1">
-      <c r="B19" s="135"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="145" t="s">
-        <v>646</v>
-      </c>
-      <c r="L19" s="144" t="s">
-        <v>647</v>
-      </c>
-      <c r="M19" s="145" t="s">
-        <v>648</v>
-      </c>
-      <c r="N19" s="144" t="s">
-        <v>649</v>
-      </c>
-      <c r="O19" s="145"/>
-      <c r="P19" s="144"/>
-    </row>
-    <row r="20" spans="2:17" ht="39" customHeight="1">
-      <c r="B20" s="135" t="s">
+      <c r="E20" s="119"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" s="128" t="s">
+        <v>102</v>
+      </c>
+      <c r="O20" s="121"/>
+      <c r="P20" s="120"/>
+    </row>
+    <row r="21" spans="2:17" ht="39" customHeight="1">
+      <c r="B21" s="153"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="126" t="s">
         <v>650</v>
       </c>
-      <c r="C20" s="150" t="s">
-        <v>608</v>
-      </c>
-      <c r="D20" s="151" t="s">
-        <v>628</v>
-      </c>
-      <c r="E20" s="138"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="139"/>
-      <c r="K20" s="140" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="152" t="s">
-        <v>55</v>
-      </c>
-      <c r="M20" s="140" t="s">
-        <v>80</v>
-      </c>
-      <c r="N20" s="152" t="s">
-        <v>102</v>
-      </c>
-      <c r="O20" s="140"/>
-      <c r="P20" s="139"/>
-    </row>
-    <row r="21" spans="2:17" ht="39" customHeight="1">
-      <c r="B21" s="135"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="145" t="s">
+      <c r="L21" s="125" t="s">
         <v>651</v>
       </c>
-      <c r="L21" s="144" t="s">
+      <c r="M21" s="126" t="s">
         <v>652</v>
       </c>
-      <c r="M21" s="145" t="s">
+      <c r="N21" s="125" t="s">
         <v>653</v>
       </c>
-      <c r="N21" s="144" t="s">
+      <c r="O21" s="126"/>
+      <c r="P21" s="125"/>
+    </row>
+    <row r="22" spans="2:17" ht="39" customHeight="1">
+      <c r="B22" s="153"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="160" t="s">
         <v>654</v>
       </c>
-      <c r="O21" s="145"/>
-      <c r="P21" s="144"/>
-    </row>
-    <row r="22" spans="2:17" ht="39" customHeight="1">
-      <c r="B22" s="135"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="153" t="s">
+      <c r="E22" s="119"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="121" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" s="120" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="39" customHeight="1">
+      <c r="B23" s="153"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="126" t="s">
         <v>655</v>
       </c>
-      <c r="E22" s="138"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="139"/>
-      <c r="K22" s="140"/>
-      <c r="L22" s="139"/>
-      <c r="M22" s="140"/>
-      <c r="N22" s="139"/>
-      <c r="O22" s="140" t="s">
-        <v>58</v>
-      </c>
-      <c r="P22" s="139" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="39" customHeight="1">
-      <c r="B23" s="135"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="144"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="144"/>
-      <c r="O23" s="145" t="s">
+      <c r="P23" s="125" t="s">
         <v>656</v>
       </c>
-      <c r="P23" s="144" t="s">
+    </row>
+    <row r="24" spans="2:17" ht="39" customHeight="1">
+      <c r="B24" s="153" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="24" spans="2:17" ht="39" customHeight="1">
-      <c r="B24" s="135" t="s">
-        <v>658</v>
-      </c>
-      <c r="C24" s="148" t="s">
+      <c r="C24" s="154" t="s">
+        <v>626</v>
+      </c>
+      <c r="D24" s="155" t="s">
         <v>627</v>
       </c>
-      <c r="D24" s="151" t="s">
-        <v>628</v>
-      </c>
-      <c r="E24" s="138" t="s">
+      <c r="E24" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="139" t="s">
+      <c r="F24" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="140" t="s">
+      <c r="G24" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="139" t="s">
+      <c r="H24" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="140" t="s">
+      <c r="I24" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="J24" s="139" t="s">
+      <c r="J24" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="140"/>
-      <c r="L24" s="139"/>
-      <c r="M24" s="140"/>
-      <c r="N24" s="139"/>
-      <c r="O24" s="140"/>
-      <c r="P24" s="139"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="120"/>
     </row>
     <row r="25" spans="2:17" ht="39" customHeight="1">
-      <c r="B25" s="135"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="143" t="s">
+      <c r="B25" s="153"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="124" t="s">
+        <v>659</v>
+      </c>
+      <c r="F25" s="125" t="s">
         <v>660</v>
       </c>
-      <c r="F25" s="144" t="s">
+      <c r="G25" s="126" t="s">
         <v>661</v>
       </c>
-      <c r="G25" s="145" t="s">
+      <c r="H25" s="125" t="s">
         <v>662</v>
       </c>
-      <c r="H25" s="144" t="s">
+      <c r="I25" s="126" t="s">
         <v>663</v>
       </c>
-      <c r="I25" s="145" t="s">
+      <c r="J25" s="125" t="s">
         <v>664</v>
       </c>
-      <c r="J25" s="144" t="s">
+      <c r="K25" s="126"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="125"/>
+    </row>
+    <row r="26" spans="2:17" ht="39" customHeight="1">
+      <c r="B26" s="153" t="s">
         <v>665</v>
       </c>
-      <c r="K25" s="145"/>
-      <c r="L25" s="144"/>
-      <c r="M25" s="145"/>
-      <c r="N25" s="144"/>
-      <c r="O25" s="145"/>
-      <c r="P25" s="144"/>
-    </row>
-    <row r="26" spans="2:17" ht="39" customHeight="1">
-      <c r="B26" s="135" t="s">
+      <c r="C26" s="154" t="s">
+        <v>626</v>
+      </c>
+      <c r="D26" s="155" t="s">
+        <v>627</v>
+      </c>
+      <c r="E26" s="119"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="121" t="s">
         <v>666</v>
       </c>
-      <c r="C26" s="148" t="s">
-        <v>627</v>
-      </c>
-      <c r="D26" s="151" t="s">
-        <v>628</v>
-      </c>
-      <c r="E26" s="138"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="140" t="s">
+      <c r="H26" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="121"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="120"/>
+    </row>
+    <row r="27" spans="2:17" ht="39" customHeight="1">
+      <c r="B27" s="153"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="126" t="s">
         <v>667</v>
       </c>
-      <c r="H26" s="139" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" s="140"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="139"/>
-      <c r="M26" s="140"/>
-      <c r="N26" s="139"/>
-      <c r="O26" s="140"/>
-      <c r="P26" s="139"/>
-    </row>
-    <row r="27" spans="2:17" ht="39" customHeight="1">
-      <c r="B27" s="135"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="145" t="s">
+      <c r="H27" s="125" t="s">
         <v>668</v>
       </c>
-      <c r="H27" s="144" t="s">
+      <c r="I27" s="126"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="125"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="125"/>
+    </row>
+    <row r="29" spans="2:17" s="130" customFormat="1" ht="26">
+      <c r="B29" s="129" t="s">
         <v>669</v>
       </c>
-      <c r="I27" s="145"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="144"/>
-      <c r="O27" s="145"/>
-      <c r="P27" s="144"/>
-    </row>
-    <row r="29" spans="2:17" s="156" customFormat="1" ht="26">
-      <c r="B29" s="154" t="s">
+      <c r="C29" s="156" t="s">
         <v>670</v>
       </c>
-      <c r="C29" s="155" t="s">
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="156"/>
+      <c r="O29" s="156"/>
+      <c r="P29" s="156"/>
+      <c r="Q29" s="156"/>
+    </row>
+    <row r="30" spans="2:17" s="131" customFormat="1" ht="26">
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="129"/>
+    </row>
+    <row r="31" spans="2:17" s="131" customFormat="1" ht="30">
+      <c r="B31" s="132"/>
+      <c r="C31" s="133" t="s">
         <v>671</v>
       </c>
-      <c r="D29" s="155"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="155"/>
-      <c r="P29" s="155"/>
-      <c r="Q29" s="155"/>
-    </row>
-    <row r="30" spans="2:17" s="157" customFormat="1" ht="26">
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="154"/>
-      <c r="L30" s="154"/>
-      <c r="M30" s="154"/>
-      <c r="N30" s="154"/>
-      <c r="O30" s="154"/>
-      <c r="P30" s="154"/>
-    </row>
-    <row r="31" spans="2:17" s="157" customFormat="1" ht="30">
-      <c r="B31" s="158"/>
-      <c r="C31" s="159" t="s">
+      <c r="D31" s="133" t="s">
         <v>672</v>
       </c>
-      <c r="D31" s="159" t="s">
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="129"/>
+    </row>
+    <row r="32" spans="2:17" ht="30">
+      <c r="B32" s="132" t="s">
         <v>673</v>
       </c>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="154"/>
-      <c r="L31" s="154"/>
-      <c r="M31" s="154"/>
-      <c r="N31" s="154"/>
-      <c r="O31" s="154"/>
-      <c r="P31" s="154"/>
-    </row>
-    <row r="32" spans="2:17" ht="30">
-      <c r="B32" s="158" t="s">
+      <c r="C32" s="157" t="s">
         <v>674</v>
       </c>
-      <c r="C32" s="160" t="s">
+      <c r="D32" s="158"/>
+    </row>
+    <row r="33" spans="2:4" ht="30">
+      <c r="B33" s="132" t="s">
         <v>675</v>
       </c>
-      <c r="D32" s="161"/>
-    </row>
-    <row r="33" spans="2:4" ht="30">
-      <c r="B33" s="158" t="s">
+      <c r="C33" s="134" t="s">
         <v>676</v>
       </c>
-      <c r="C33" s="162" t="s">
+      <c r="D33" s="134" t="s">
         <v>677</v>
-      </c>
-      <c r="D33" s="162" t="s">
-        <v>678</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -27409,20 +27429,37 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -27470,7 +27507,7 @@
         <v>163</v>
       </c>
       <c r="D2" s="113" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E2" s="113" t="s">
         <v>164</v>
@@ -27739,7 +27776,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="23">
-      <c r="B14" s="174" t="s">
+      <c r="B14" s="146" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="99" t="s">
